--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Apln-Aplnr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Apln-Aplnr.xlsx
@@ -82,19 +82,19 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Apln</t>
+  </si>
+  <si>
+    <t>Aplnr</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Apln</t>
-  </si>
-  <si>
-    <t>Aplnr</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>39.10759433333333</v>
+        <v>20.25093</v>
       </c>
       <c r="H2">
-        <v>117.322783</v>
+        <v>60.75279</v>
       </c>
       <c r="I2">
-        <v>0.8616392443188863</v>
+        <v>0.7748170638893737</v>
       </c>
       <c r="J2">
-        <v>0.8616392443188866</v>
+        <v>0.7748170638893737</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>139.378296</v>
+        <v>186.4969126666666</v>
       </c>
       <c r="N2">
-        <v>418.134888</v>
+        <v>559.490738</v>
       </c>
       <c r="O2">
-        <v>0.9913268109266251</v>
+        <v>0.9838307803020685</v>
       </c>
       <c r="P2">
-        <v>0.9913268109266252</v>
+        <v>0.9838307803020684</v>
       </c>
       <c r="Q2">
-        <v>5450.749858839256</v>
+        <v>3776.73592362878</v>
       </c>
       <c r="R2">
-        <v>49056.74872955331</v>
+        <v>33990.62331265902</v>
       </c>
       <c r="S2">
-        <v>0.8541660842398687</v>
+        <v>0.7622888765576401</v>
       </c>
       <c r="T2">
-        <v>0.8541660842398692</v>
+        <v>0.7622888765576401</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>39.10759433333333</v>
+        <v>20.25093</v>
       </c>
       <c r="H3">
-        <v>117.322783</v>
+        <v>60.75279</v>
       </c>
       <c r="I3">
-        <v>0.8616392443188863</v>
+        <v>0.7748170638893737</v>
       </c>
       <c r="J3">
-        <v>0.8616392443188866</v>
+        <v>0.7748170638893737</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>2.40237</v>
       </c>
       <c r="O3">
-        <v>0.005695611294616001</v>
+        <v>0.004224423017480373</v>
       </c>
       <c r="P3">
-        <v>0.005695611294616001</v>
+        <v>0.004224423017480372</v>
       </c>
       <c r="Q3">
-        <v>31.31697046619</v>
+        <v>16.2167422347</v>
       </c>
       <c r="R3">
-        <v>281.85273419571</v>
+        <v>145.9506801123</v>
       </c>
       <c r="S3">
-        <v>0.004907562211827044</v>
+        <v>0.00327315503903083</v>
       </c>
       <c r="T3">
-        <v>0.004907562211827046</v>
+        <v>0.00327315503903083</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,7 +655,7 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>39.10759433333333</v>
+        <v>20.25093</v>
       </c>
       <c r="H4">
-        <v>117.322783</v>
+        <v>60.75279</v>
       </c>
       <c r="I4">
-        <v>0.8616392443188863</v>
+        <v>0.7748170638893737</v>
       </c>
       <c r="J4">
-        <v>0.8616392443188866</v>
+        <v>0.7748170638893737</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.1616676666666667</v>
+        <v>1.711075333333334</v>
       </c>
       <c r="N4">
-        <v>0.485003</v>
+        <v>5.133226000000001</v>
       </c>
       <c r="O4">
-        <v>0.001149859748799162</v>
+        <v>0.009026468890440984</v>
       </c>
       <c r="P4">
-        <v>0.001149859748799162</v>
+        <v>0.009026468890440982</v>
       </c>
       <c r="Q4">
-        <v>6.322433524816555</v>
+        <v>34.65086680006</v>
       </c>
       <c r="R4">
-        <v>56.901901723349</v>
+        <v>311.8578012005401</v>
       </c>
       <c r="S4">
-        <v>0.0009907642850280147</v>
+        <v>0.006993862122980256</v>
       </c>
       <c r="T4">
-        <v>0.0009907642850280152</v>
+        <v>0.006993862122980254</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,7 +717,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>39.10759433333333</v>
+        <v>20.25093</v>
       </c>
       <c r="H5">
-        <v>117.322783</v>
+        <v>60.75279</v>
       </c>
       <c r="I5">
-        <v>0.8616392443188863</v>
+        <v>0.7748170638893737</v>
       </c>
       <c r="J5">
-        <v>0.8616392443188866</v>
+        <v>0.7748170638893737</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.1118466666666667</v>
+        <v>0.1126546666666667</v>
       </c>
       <c r="N5">
-        <v>0.33554</v>
+        <v>0.337964</v>
       </c>
       <c r="O5">
-        <v>0.0007955083579113345</v>
+        <v>0.00059428934788552</v>
       </c>
       <c r="P5">
-        <v>0.0007955083579113347</v>
+        <v>0.0005942893478855199</v>
       </c>
       <c r="Q5">
-        <v>4.374054067535555</v>
+        <v>2.28136176884</v>
       </c>
       <c r="R5">
-        <v>39.36648660782</v>
+        <v>20.53225591956</v>
       </c>
       <c r="S5">
-        <v>0.0006854412203600804</v>
+        <v>0.0004604655276293891</v>
       </c>
       <c r="T5">
-        <v>0.0006854412203600808</v>
+        <v>0.0004604655276293891</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,7 +779,7 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>39.10759433333333</v>
+        <v>20.25093</v>
       </c>
       <c r="H6">
-        <v>117.322783</v>
+        <v>60.75279</v>
       </c>
       <c r="I6">
-        <v>0.8616392443188863</v>
+        <v>0.7748170638893737</v>
       </c>
       <c r="J6">
-        <v>0.8616392443188866</v>
+        <v>0.7748170638893737</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.1451263333333333</v>
+        <v>0.4405493333333334</v>
       </c>
       <c r="N6">
-        <v>0.435379</v>
+        <v>1.321648</v>
       </c>
       <c r="O6">
-        <v>0.001032209672048277</v>
+        <v>0.00232403844212461</v>
       </c>
       <c r="P6">
-        <v>0.001032209672048277</v>
+        <v>0.00232403844212461</v>
       </c>
       <c r="Q6">
-        <v>5.67554177108411</v>
+        <v>8.921533710880002</v>
       </c>
       <c r="R6">
-        <v>51.079875939757</v>
+        <v>80.29380339792002</v>
       </c>
       <c r="S6">
-        <v>0.0008893923618023229</v>
+        <v>0.001800704642093025</v>
       </c>
       <c r="T6">
-        <v>0.0008893923618023235</v>
+        <v>0.001800704642093024</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>5.644020333333334</v>
+        <v>5.644020333333333</v>
       </c>
       <c r="H7">
         <v>16.932061</v>
       </c>
       <c r="I7">
-        <v>0.1243520471620699</v>
+        <v>0.2159448115817524</v>
       </c>
       <c r="J7">
-        <v>0.1243520471620699</v>
+        <v>0.2159448115817524</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>139.378296</v>
+        <v>186.4969126666666</v>
       </c>
       <c r="N7">
-        <v>418.134888</v>
+        <v>559.490738</v>
       </c>
       <c r="O7">
-        <v>0.9913268109266251</v>
+        <v>0.9838307803020685</v>
       </c>
       <c r="P7">
-        <v>0.9913268109266252</v>
+        <v>0.9838307803020684</v>
       </c>
       <c r="Q7">
-        <v>786.6539366493521</v>
+        <v>1052.592367194557</v>
       </c>
       <c r="R7">
-        <v>7079.885429844168</v>
+        <v>9473.331304751016</v>
       </c>
       <c r="S7">
-        <v>0.123273518345372</v>
+        <v>0.2124531524806586</v>
       </c>
       <c r="T7">
-        <v>0.123273518345372</v>
+        <v>0.2124531524806585</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>5.644020333333334</v>
+        <v>5.644020333333333</v>
       </c>
       <c r="H8">
         <v>16.932061</v>
       </c>
       <c r="I8">
-        <v>0.1243520471620699</v>
+        <v>0.2159448115817524</v>
       </c>
       <c r="J8">
-        <v>0.1243520471620699</v>
+        <v>0.2159448115817524</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>2.40237</v>
       </c>
       <c r="O8">
-        <v>0.005695611294616001</v>
+        <v>0.004224423017480373</v>
       </c>
       <c r="P8">
-        <v>0.005695611294616001</v>
+        <v>0.004224423017480372</v>
       </c>
       <c r="Q8">
-        <v>4.51967504273</v>
+        <v>4.519675042729999</v>
       </c>
       <c r="R8">
-        <v>40.67707538457</v>
+        <v>40.67707538456999</v>
       </c>
       <c r="S8">
-        <v>0.0007082609243249066</v>
+        <v>0.000912242232551417</v>
       </c>
       <c r="T8">
-        <v>0.0007082609243249068</v>
+        <v>0.0009122422325514167</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,7 +965,7 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>5.644020333333334</v>
+        <v>5.644020333333333</v>
       </c>
       <c r="H9">
         <v>16.932061</v>
       </c>
       <c r="I9">
-        <v>0.1243520471620699</v>
+        <v>0.2159448115817524</v>
       </c>
       <c r="J9">
-        <v>0.1243520471620699</v>
+        <v>0.2159448115817524</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.1616676666666667</v>
+        <v>1.711075333333334</v>
       </c>
       <c r="N9">
-        <v>0.485003</v>
+        <v>5.133226000000001</v>
       </c>
       <c r="O9">
-        <v>0.001149859748799162</v>
+        <v>0.009026468890440984</v>
       </c>
       <c r="P9">
-        <v>0.001149859748799162</v>
+        <v>0.009026468890440982</v>
       </c>
       <c r="Q9">
-        <v>0.9124555979092221</v>
+        <v>9.657343973198444</v>
       </c>
       <c r="R9">
-        <v>8.212100381182999</v>
+        <v>86.916095758786</v>
       </c>
       <c r="S9">
-        <v>0.0001429874137124392</v>
+        <v>0.001949219123794828</v>
       </c>
       <c r="T9">
-        <v>0.0001429874137124393</v>
+        <v>0.001949219123794827</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,7 +1027,7 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>5.644020333333334</v>
+        <v>5.644020333333333</v>
       </c>
       <c r="H10">
         <v>16.932061</v>
       </c>
       <c r="I10">
-        <v>0.1243520471620699</v>
+        <v>0.2159448115817524</v>
       </c>
       <c r="J10">
-        <v>0.1243520471620699</v>
+        <v>0.2159448115817524</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.1118466666666667</v>
+        <v>0.1126546666666667</v>
       </c>
       <c r="N10">
-        <v>0.33554</v>
+        <v>0.337964</v>
       </c>
       <c r="O10">
-        <v>0.0007955083579113345</v>
+        <v>0.00059428934788552</v>
       </c>
       <c r="P10">
-        <v>0.0007955083579113347</v>
+        <v>0.0005942893478855199</v>
       </c>
       <c r="Q10">
-        <v>0.6312648608822222</v>
+        <v>0.6358252293115555</v>
       </c>
       <c r="R10">
-        <v>5.68138374794</v>
+        <v>5.722427063803999</v>
       </c>
       <c r="S10">
-        <v>9.892309284081101E-05</v>
+        <v>0.0001283337012541811</v>
       </c>
       <c r="T10">
-        <v>9.892309284081106E-05</v>
+        <v>0.0001283337012541811</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,7 +1089,7 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>5.644020333333334</v>
+        <v>5.644020333333333</v>
       </c>
       <c r="H11">
         <v>16.932061</v>
       </c>
       <c r="I11">
-        <v>0.1243520471620699</v>
+        <v>0.2159448115817524</v>
       </c>
       <c r="J11">
-        <v>0.1243520471620699</v>
+        <v>0.2159448115817524</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.1451263333333333</v>
+        <v>0.4405493333333334</v>
       </c>
       <c r="N11">
-        <v>0.435379</v>
+        <v>1.321648</v>
       </c>
       <c r="O11">
-        <v>0.001032209672048277</v>
+        <v>0.00232403844212461</v>
       </c>
       <c r="P11">
-        <v>0.001032209672048277</v>
+        <v>0.00232403844212461</v>
       </c>
       <c r="Q11">
-        <v>0.8190959762354445</v>
+        <v>2.486469395169778</v>
       </c>
       <c r="R11">
-        <v>7.371863786119</v>
+        <v>22.378224556528</v>
       </c>
       <c r="S11">
-        <v>0.000128357385819692</v>
+        <v>0.0005018640434933483</v>
       </c>
       <c r="T11">
-        <v>0.0001283573858196921</v>
+        <v>0.0005018640434933482</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,22 +1154,22 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.06495833333333333</v>
+        <v>0.216663</v>
       </c>
       <c r="H12">
-        <v>0.194875</v>
+        <v>0.649989</v>
       </c>
       <c r="I12">
-        <v>0.001431196426159128</v>
+        <v>0.008289702720490535</v>
       </c>
       <c r="J12">
-        <v>0.001431196426159129</v>
+        <v>0.008289702720490533</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>139.378296</v>
+        <v>186.4969126666666</v>
       </c>
       <c r="N12">
-        <v>418.134888</v>
+        <v>559.490738</v>
       </c>
       <c r="O12">
-        <v>0.9913268109266251</v>
+        <v>0.9838307803020685</v>
       </c>
       <c r="P12">
-        <v>0.9913268109266252</v>
+        <v>0.9838307803020684</v>
       </c>
       <c r="Q12">
-        <v>9.053781810999999</v>
+        <v>40.406980589098</v>
       </c>
       <c r="R12">
-        <v>81.484036299</v>
+        <v>363.662825301882</v>
       </c>
       <c r="S12">
-        <v>0.001418783388953912</v>
+        <v>0.008155664695972382</v>
       </c>
       <c r="T12">
-        <v>0.001418783388953913</v>
+        <v>0.00815566469597238</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.06495833333333333</v>
+        <v>0.216663</v>
       </c>
       <c r="H13">
-        <v>0.194875</v>
+        <v>0.649989</v>
       </c>
       <c r="I13">
-        <v>0.001431196426159128</v>
+        <v>0.008289702720490535</v>
       </c>
       <c r="J13">
-        <v>0.001431196426159129</v>
+        <v>0.008289702720490533</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>2.40237</v>
       </c>
       <c r="O13">
-        <v>0.005695611294616001</v>
+        <v>0.004224423017480373</v>
       </c>
       <c r="P13">
-        <v>0.005695611294616001</v>
+        <v>0.004224423017480372</v>
       </c>
       <c r="Q13">
-        <v>0.05201798375</v>
+        <v>0.17350156377</v>
       </c>
       <c r="R13">
-        <v>0.46816185375</v>
+        <v>1.56151407393</v>
       </c>
       <c r="S13">
-        <v>8.151538529645987E-06</v>
+        <v>3.501921098050988E-05</v>
       </c>
       <c r="T13">
-        <v>8.151538529645991E-06</v>
+        <v>3.501921098050987E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,25 +1275,25 @@
         <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.06495833333333333</v>
+        <v>0.216663</v>
       </c>
       <c r="H14">
-        <v>0.194875</v>
+        <v>0.649989</v>
       </c>
       <c r="I14">
-        <v>0.001431196426159128</v>
+        <v>0.008289702720490535</v>
       </c>
       <c r="J14">
-        <v>0.001431196426159129</v>
+        <v>0.008289702720490533</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.1616676666666667</v>
+        <v>1.711075333333334</v>
       </c>
       <c r="N14">
-        <v>0.485003</v>
+        <v>5.133226000000001</v>
       </c>
       <c r="O14">
-        <v>0.001149859748799162</v>
+        <v>0.009026468890440984</v>
       </c>
       <c r="P14">
-        <v>0.001149859748799162</v>
+        <v>0.009026468890440982</v>
       </c>
       <c r="Q14">
-        <v>0.01050166218055555</v>
+        <v>0.3707267149460001</v>
       </c>
       <c r="R14">
-        <v>0.09451495962499999</v>
+        <v>3.336540434514001</v>
       </c>
       <c r="S14">
-        <v>1.645675163065594E-06</v>
+        <v>7.48267437175118E-05</v>
       </c>
       <c r="T14">
-        <v>1.645675163065595E-06</v>
+        <v>7.482674371751177E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,25 +1337,25 @@
         <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.06495833333333333</v>
+        <v>0.216663</v>
       </c>
       <c r="H15">
-        <v>0.194875</v>
+        <v>0.649989</v>
       </c>
       <c r="I15">
-        <v>0.001431196426159128</v>
+        <v>0.008289702720490535</v>
       </c>
       <c r="J15">
-        <v>0.001431196426159129</v>
+        <v>0.008289702720490533</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.1118466666666667</v>
+        <v>0.1126546666666667</v>
       </c>
       <c r="N15">
-        <v>0.33554</v>
+        <v>0.337964</v>
       </c>
       <c r="O15">
-        <v>0.0007955083579113345</v>
+        <v>0.00059428934788552</v>
       </c>
       <c r="P15">
-        <v>0.0007955083579113347</v>
+        <v>0.0005942893478855199</v>
       </c>
       <c r="Q15">
-        <v>0.007265373055555554</v>
+        <v>0.024408098044</v>
       </c>
       <c r="R15">
-        <v>0.06538835749999999</v>
+        <v>0.219672882396</v>
       </c>
       <c r="S15">
-        <v>1.138528718822419E-06</v>
+        <v>4.926482023925141E-06</v>
       </c>
       <c r="T15">
-        <v>1.13852871882242E-06</v>
+        <v>4.926482023925139E-06</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,25 +1399,25 @@
         <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.06495833333333333</v>
+        <v>0.216663</v>
       </c>
       <c r="H16">
-        <v>0.194875</v>
+        <v>0.649989</v>
       </c>
       <c r="I16">
-        <v>0.001431196426159128</v>
+        <v>0.008289702720490535</v>
       </c>
       <c r="J16">
-        <v>0.001431196426159129</v>
+        <v>0.008289702720490533</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.1451263333333333</v>
+        <v>0.4405493333333334</v>
       </c>
       <c r="N16">
-        <v>0.435379</v>
+        <v>1.321648</v>
       </c>
       <c r="O16">
-        <v>0.001032209672048277</v>
+        <v>0.00232403844212461</v>
       </c>
       <c r="P16">
-        <v>0.001032209672048277</v>
+        <v>0.00232403844212461</v>
       </c>
       <c r="Q16">
-        <v>0.00942716473611111</v>
+        <v>0.09545074020800003</v>
       </c>
       <c r="R16">
-        <v>0.084844482625</v>
+        <v>0.8590566618720001</v>
       </c>
       <c r="S16">
-        <v>1.47729479368238E-06</v>
+        <v>1.926558779620497E-05</v>
       </c>
       <c r="T16">
-        <v>1.477294793682381E-06</v>
+        <v>1.926558779620496E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,22 +1464,22 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.570861</v>
+        <v>0.02478833333333333</v>
       </c>
       <c r="H17">
-        <v>1.712583</v>
+        <v>0.074365</v>
       </c>
       <c r="I17">
-        <v>0.01257751209288456</v>
+        <v>0.0009484218083833396</v>
       </c>
       <c r="J17">
-        <v>0.01257751209288457</v>
+        <v>0.0009484218083833395</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>139.378296</v>
+        <v>186.4969126666666</v>
       </c>
       <c r="N17">
-        <v>418.134888</v>
+        <v>559.490738</v>
       </c>
       <c r="O17">
-        <v>0.9913268109266251</v>
+        <v>0.9838307803020685</v>
       </c>
       <c r="P17">
-        <v>0.9913268109266252</v>
+        <v>0.9838307803020684</v>
       </c>
       <c r="Q17">
-        <v>79.565633432856</v>
+        <v>4.622947636818888</v>
       </c>
       <c r="R17">
-        <v>716.090700895704</v>
+        <v>41.60652873137</v>
       </c>
       <c r="S17">
-        <v>0.01246842495243031</v>
+        <v>0.0009330865677972799</v>
       </c>
       <c r="T17">
-        <v>0.01246842495243032</v>
+        <v>0.0009330865677972796</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,22 +1526,22 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.570861</v>
+        <v>0.02478833333333333</v>
       </c>
       <c r="H18">
-        <v>1.712583</v>
+        <v>0.074365</v>
       </c>
       <c r="I18">
-        <v>0.01257751209288456</v>
+        <v>0.0009484218083833396</v>
       </c>
       <c r="J18">
-        <v>0.01257751209288457</v>
+        <v>0.0009484218083833395</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>2.40237</v>
       </c>
       <c r="O18">
-        <v>0.005695611294616001</v>
+        <v>0.004224423017480373</v>
       </c>
       <c r="P18">
-        <v>0.005695611294616001</v>
+        <v>0.004224423017480372</v>
       </c>
       <c r="Q18">
-        <v>0.45713978019</v>
+        <v>0.01985024945</v>
       </c>
       <c r="R18">
-        <v>4.11425802171</v>
+        <v>0.17865224505</v>
       </c>
       <c r="S18">
-        <v>7.163661993440263E-05</v>
+        <v>4.006534917614939E-06</v>
       </c>
       <c r="T18">
-        <v>7.163661993440266E-05</v>
+        <v>4.006534917614938E-06</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1585,25 +1585,25 @@
         <v>25</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.570861</v>
+        <v>0.02478833333333333</v>
       </c>
       <c r="H19">
-        <v>1.712583</v>
+        <v>0.074365</v>
       </c>
       <c r="I19">
-        <v>0.01257751209288456</v>
+        <v>0.0009484218083833396</v>
       </c>
       <c r="J19">
-        <v>0.01257751209288457</v>
+        <v>0.0009484218083833395</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.1616676666666667</v>
+        <v>1.711075333333334</v>
       </c>
       <c r="N19">
-        <v>0.485003</v>
+        <v>5.133226000000001</v>
       </c>
       <c r="O19">
-        <v>0.001149859748799162</v>
+        <v>0.009026468890440984</v>
       </c>
       <c r="P19">
-        <v>0.001149859748799162</v>
+        <v>0.009026468890440982</v>
       </c>
       <c r="Q19">
-        <v>0.09228976586099999</v>
+        <v>0.04241470572111111</v>
       </c>
       <c r="R19">
-        <v>0.8306078927489999</v>
+        <v>0.3817323514900001</v>
       </c>
       <c r="S19">
-        <v>1.446237489564267E-05</v>
+        <v>8.560899948387995E-06</v>
       </c>
       <c r="T19">
-        <v>1.446237489564268E-05</v>
+        <v>8.560899948387992E-06</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1647,25 +1647,25 @@
         <v>25</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>0.570861</v>
+        <v>0.02478833333333333</v>
       </c>
       <c r="H20">
-        <v>1.712583</v>
+        <v>0.074365</v>
       </c>
       <c r="I20">
-        <v>0.01257751209288456</v>
+        <v>0.0009484218083833396</v>
       </c>
       <c r="J20">
-        <v>0.01257751209288457</v>
+        <v>0.0009484218083833395</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.1118466666666667</v>
+        <v>0.1126546666666667</v>
       </c>
       <c r="N20">
-        <v>0.33554</v>
+        <v>0.337964</v>
       </c>
       <c r="O20">
-        <v>0.0007955083579113345</v>
+        <v>0.00059428934788552</v>
       </c>
       <c r="P20">
-        <v>0.0007955083579113347</v>
+        <v>0.0005942893478855199</v>
       </c>
       <c r="Q20">
-        <v>0.06384889998</v>
+        <v>0.002792521428888889</v>
       </c>
       <c r="R20">
-        <v>0.57464009982</v>
+        <v>0.02513269286</v>
       </c>
       <c r="S20">
-        <v>1.000551599162055E-05</v>
+        <v>5.636369780245405E-07</v>
       </c>
       <c r="T20">
-        <v>1.000551599162056E-05</v>
+        <v>5.636369780245403E-07</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1709,25 +1709,25 @@
         <v>25</v>
       </c>
       <c r="D21" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G21">
-        <v>0.570861</v>
+        <v>0.02478833333333333</v>
       </c>
       <c r="H21">
-        <v>1.712583</v>
+        <v>0.074365</v>
       </c>
       <c r="I21">
-        <v>0.01257751209288456</v>
+        <v>0.0009484218083833396</v>
       </c>
       <c r="J21">
-        <v>0.01257751209288457</v>
+        <v>0.0009484218083833395</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.1451263333333333</v>
+        <v>0.4405493333333334</v>
       </c>
       <c r="N21">
-        <v>0.435379</v>
+        <v>1.321648</v>
       </c>
       <c r="O21">
-        <v>0.001032209672048277</v>
+        <v>0.00232403844212461</v>
       </c>
       <c r="P21">
-        <v>0.001032209672048277</v>
+        <v>0.00232403844212461</v>
       </c>
       <c r="Q21">
-        <v>0.08284696377299999</v>
+        <v>0.01092048372444445</v>
       </c>
       <c r="R21">
-        <v>0.745622673957</v>
+        <v>0.09828435352000001</v>
       </c>
       <c r="S21">
-        <v>1.298262963257961E-05</v>
+        <v>2.204168742032222E-06</v>
       </c>
       <c r="T21">
-        <v>1.298262963257962E-05</v>
+        <v>2.204168742032222E-06</v>
       </c>
     </row>
   </sheetData>
